--- a/data/winners_old.xlsx
+++ b/data/winners_old.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,60 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>四等奖</t>
+          <t>一等奖</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2-王雨薇</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>四等奖</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>18-沈佳怡</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>四等奖</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>23-尤嘉豪</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>四等奖</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>24-许梦琪</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>四等奖</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>36-邹明辉</t>
+          <t>19-韩睿哲</t>
         </is>
       </c>
     </row>

--- a/data/winners_old.xlsx
+++ b/data/winners_old.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,12 +448,600 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12-梁宇澄</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>34-姜逸飞</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>39-水思涵</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4-孙悦澄</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8-胡晓峰</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>44-潘梦琪</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>46-奚雨泽</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>28-曹心怡</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6-吴逸飞</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2-王雨薇</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9-林雅琪</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>26-施雨泽</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>11-高诗涵</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>38-柏晓萱</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>40-窦嘉怡</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7-郑晨曦</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>42-云静宜</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>22-秦雨昕</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5-周梓萱</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1-李明轩</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>10-何俊辉</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>14-孟晓琳</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>48-鲁心怡</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>25-吕晨阳</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17-蒋宇轩</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>41-章睿泽</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>29-严思敏</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>37-喻紫嫣</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>23-尤嘉豪</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>47-郎梓豪</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>31-金宇澄</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>21-朱逸凡</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20-杨静宜</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>24-许梦琪</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>16-卫紫菱</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>15-冯悦然</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3-赵嘉瑞</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>50-苗晓妍</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>43-苏逸凡</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>35-戚雅琴</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>30-华晓妍</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>19-韩睿哲</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>13-谢思瑶</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>33-陶诗韵</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>45-葛晨阳</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>二等奖</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>32-魏子涵</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>二等奖</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>18-沈佳怡</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>二等奖</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>49-昌思敏</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>二等奖</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>36-邹明辉</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>一等奖</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>19-韩睿哲</t>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>15-冯悦然</t>
         </is>
       </c>
     </row>

--- a/data/winners_old.xlsx
+++ b/data/winners_old.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12-梁宇澄</t>
+          <t>49-昌思敏</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>34-姜逸飞</t>
+          <t>26-施雨泽</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>39-水思涵</t>
+          <t>43-苏逸凡</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4-孙悦澄</t>
+          <t>20-杨静宜</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8-胡晓峰</t>
+          <t>18-沈佳怡</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>44-潘梦琪</t>
+          <t>3-赵嘉瑞</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>46-奚雨泽</t>
+          <t>45-葛晨阳</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>28-曹心怡</t>
+          <t>34-姜逸飞</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6-吴逸飞</t>
+          <t>35-戚雅琴</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2-王雨薇</t>
+          <t>30-华晓妍</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9-林雅琪</t>
+          <t>17-蒋宇轩</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>26-施雨泽</t>
+          <t>25-吕晨阳</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11-高诗涵</t>
+          <t>28-曹心怡</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>38-柏晓萱</t>
+          <t>5-周梓萱</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>40-窦嘉怡</t>
+          <t>42-云静宜</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7-郑晨曦</t>
+          <t>1-李明轩</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>42-云静宜</t>
+          <t>7-郑晨曦</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22-秦雨昕</t>
+          <t>48-鲁心怡</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5-周梓萱</t>
+          <t>8-胡晓峰</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1-李明轩</t>
+          <t>9-林雅琪</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10-何俊辉</t>
+          <t>31-金宇澄</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>14-孟晓琳</t>
+          <t>19-韩睿哲</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>48-鲁心怡</t>
+          <t>15-冯悦然</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>25-吕晨阳</t>
+          <t>47-郎梓豪</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>17-蒋宇轩</t>
+          <t>41-章睿泽</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>41-章睿泽</t>
+          <t>2-王雨薇</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>29-严思敏</t>
+          <t>37-喻紫嫣</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>37-喻紫嫣</t>
+          <t>46-奚雨泽</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>23-尤嘉豪</t>
+          <t>11-高诗涵</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>47-郎梓豪</t>
+          <t>40-窦嘉怡</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>31-金宇澄</t>
+          <t>13-谢思瑶</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>21-朱逸凡</t>
+          <t>14-孟晓琳</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20-杨静宜</t>
+          <t>21-朱逸凡</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>24-许梦琪</t>
+          <t>29-严思敏</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16-卫紫菱</t>
+          <t>50-苗晓妍</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>15-冯悦然</t>
+          <t>39-水思涵</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3-赵嘉瑞</t>
+          <t>27-孔梓豪</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>50-苗晓妍</t>
+          <t>32-魏子涵</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>43-苏逸凡</t>
+          <t>22-秦雨昕</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>35-戚雅琴</t>
+          <t>4-孙悦澄</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>30-华晓妍</t>
+          <t>33-陶诗韵</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>19-韩睿哲</t>
+          <t>6-吴逸飞</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>13-谢思瑶</t>
+          <t>10-何俊辉</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>33-陶诗韵</t>
+          <t>23-尤嘉豪</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>45-葛晨阳</t>
+          <t>44-潘梦琪</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>32-魏子涵</t>
+          <t>16-卫紫菱</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>18-沈佳怡</t>
+          <t>24-许梦琪</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>49-昌思敏</t>
+          <t>12-梁宇澄</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>36-邹明辉</t>
+          <t>38-柏晓萱</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>15-冯悦然</t>
+          <t>36-邹明辉</t>
         </is>
       </c>
     </row>

--- a/data/winners_old.xlsx
+++ b/data/winners_old.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,595 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>7-郑晨曦</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9-林雅琪</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12-梁宇澄</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11-高诗涵</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14-孟晓琳</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6-吴逸飞</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>28-曹心怡</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>26-施雨泽</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>45-葛晨阳</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>25-吕晨阳</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>35-戚雅琴</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>40-窦嘉怡</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>33-陶诗韵</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10-何俊辉</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>16-卫紫菱</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30-华晓妍</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>21-朱逸凡</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>44-潘梦琪</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>48-鲁心怡</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3-赵嘉瑞</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20-杨静宜</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>46-奚雨泽</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>24-许梦琪</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>38-柏晓萱</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>13-谢思瑶</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5-周梓萱</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>23-尤嘉豪</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2-王雨薇</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>29-严思敏</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>四等奖</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>22-秦雨昕</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>39-水思涵</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>36-邹明辉</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>47-郎梓豪</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>15-冯悦然</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>8-胡晓峰</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>42-云静宜</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>43-苏逸凡</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1-李明轩</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4-孙悦澄</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>19-韩睿哲</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>17-蒋宇轩</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>31-金宇澄</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>50-苗晓妍</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>37-喻紫嫣</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>三等奖</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>32-魏子涵</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>二等奖</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>41-章睿泽</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>二等奖</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>49-昌思敏</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>二等奖</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>34-姜逸飞</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>二等奖</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>18-沈佳怡</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>一等奖</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>27-孔梓豪</t>
         </is>
       </c>
     </row>

--- a/data/winners_old.xlsx
+++ b/data/winners_old.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7-郑晨曦</t>
+          <t>23-尤嘉豪</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9-林雅琪</t>
+          <t>10-何俊辉</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12-梁宇澄</t>
+          <t>32-魏子涵</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11-高诗涵</t>
+          <t>6-吴逸飞</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14-孟晓琳</t>
+          <t>20-杨静宜</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6-吴逸飞</t>
+          <t>19-韩睿哲</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26-施雨泽</t>
+          <t>22-秦雨昕</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>45-葛晨阳</t>
+          <t>47-郎梓豪</t>
         </is>
       </c>
     </row>
@@ -561,31 +561,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>25-吕晨阳</t>
+          <t>17-蒋宇轩</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>四等奖</t>
+          <t>二等奖</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>35-戚雅琴</t>
+          <t>5-周梓萱</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>四等奖</t>
+          <t>二等奖</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>40-窦嘉怡</t>
+          <t>1-李明轩</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>33-陶诗韵</t>
+          <t>11-高诗涵</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10-何俊辉</t>
+          <t>49-昌思敏</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16-卫紫菱</t>
+          <t>37-喻紫嫣</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>30-华晓妍</t>
+          <t>43-苏逸凡</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21-朱逸凡</t>
+          <t>27-孔梓豪</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>44-潘梦琪</t>
+          <t>8-胡晓峰</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>48-鲁心怡</t>
+          <t>3-赵嘉瑞</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3-赵嘉瑞</t>
+          <t>41-章睿泽</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20-杨静宜</t>
+          <t>13-谢思瑶</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>46-奚雨泽</t>
+          <t>29-严思敏</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24-许梦琪</t>
+          <t>33-陶诗韵</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>38-柏晓萱</t>
+          <t>7-郑晨曦</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>13-谢思瑶</t>
+          <t>25-吕晨阳</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5-周梓萱</t>
+          <t>50-苗晓妍</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>23-尤嘉豪</t>
+          <t>48-鲁心怡</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2-王雨薇</t>
+          <t>16-卫紫菱</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>29-严思敏</t>
+          <t>26-施雨泽</t>
         </is>
       </c>
     </row>
@@ -801,247 +801,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>22-秦雨昕</t>
+          <t>4-孙悦澄</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>三等奖</t>
+          <t>四等奖</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>39-水思涵</t>
+          <t>38-柏晓萱</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>三等奖</t>
+          <t>四等奖</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>36-邹明辉</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>三等奖</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>47-郎梓豪</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>三等奖</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>15-冯悦然</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>三等奖</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>8-胡晓峰</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>三等奖</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>42-云静宜</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>三等奖</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>43-苏逸凡</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>三等奖</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1-李明轩</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>三等奖</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>4-孙悦澄</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>三等奖</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>19-韩睿哲</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>三等奖</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>17-蒋宇轩</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>三等奖</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>31-金宇澄</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>三等奖</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>50-苗晓妍</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>三等奖</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>37-喻紫嫣</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>三等奖</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>32-魏子涵</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>二等奖</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>41-章睿泽</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>二等奖</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>49-昌思敏</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>二等奖</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>34-姜逸飞</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>二等奖</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>18-沈佳怡</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>一等奖</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>27-孔梓豪</t>
+          <t>45-葛晨阳</t>
         </is>
       </c>
     </row>
